--- a/posts.xlsx
+++ b/posts.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\hema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E3E13-DBDB-4295-8B0D-CD88DBF32C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,23 +20,739 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>We lost everything in a moment. Now we cling to hope and humanity 😭. Help us hold on. Please check the link below 🙏. Be our light in the darkness — support us below 💡.</t>
   </si>
   <si>
     <t>2We lost everything in a moment. Now we cling to hope and humanity 😭. Help us hold on. Please check the link below 🙏. Be our light in the darkness — support us below 💡.</t>
+  </si>
+  <si>
+    <t>Amidst the debris, we struggle to survive. Hunger is devouring us, but with your support, we can find hope again. 💔🩵</t>
+  </si>
+  <si>
+    <t>Each step through the ruins is a fight for life. Hunger weakens us, but your kindness is our strength. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Our bodies are breaking, but your compassion could restore what hunger has destroyed. 💔🩵 Help us rise again. 🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+We’re crawling through the wreckage, desperate for sustenance. 💔 But with your support, we can rebuild and rise. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Among the rubble, we search for anything to survive. Hunger is breaking us, but your support will heal us. 💔🩵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Surrounded by destruction, hunger is dissolving our strength. But with your help, hope can return. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Every step in this rubble is a fight. Hunger weakens us, but your love will give us strength to survive. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+We are fading, our bodies weak from hunger. But with your help, we can rebuild. 💔🩵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Crawling through ruins, our bodies are starving. But your compassion could breathe life into us. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In the wreckage, hunger is our enemy. But your kindness could help us overcome it. 🩵🫶 Help us rebuild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+We fight hunger with broken bodies, searching for hope. Your support can light our way. 💔🩵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Our bodies are weak from hunger, but your generosity could bring us strength. 🩵🫶 Stand with us.</t>
+  </si>
+  <si>
+    <t>Among the destruction, we are searching for something to hold on to. Hunger threatens us, but your help gives us hope. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapped in the rubble, we search for any trace of life. Hunger is eating us alive, but your support could restore us. 🩵🫶                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>In this devastation, hunger is dissolving us. But your support is the hope we need. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Our bodies are weak, and hunger is taking its toll. But with your help, we can rise again. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We crawl through the debris, desperate for something to eat. Hunger is breaking us down, but you can rebuild us. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hunger is tearing at our bodies, but your support can stitch us back together. 💔🩵</t>
+  </si>
+  <si>
+    <t>In the wreckage, hunger is devouring us. But your kindness can restore what we’ve lost. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The rubble surrounds us, hunger is weakening us, but your love could lift us from despair. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+We search the ruins, barely holding on. But with your support, we can find hope again. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Hunger is eating us alive, but your compassion can be the cure. 🩵🫶 Help us rebuild from the rubble.</t>
+  </si>
+  <si>
+    <t>Each step in the debris is agony. Hunger is consuming us, but with your support, we will survive. 🩵🫶</t>
+  </si>
+  <si>
+    <t>In the midst of destruction, our bodies are giving in to hunger. But with your kindness, we can rise again. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We are weak, hungry, and lost. But your generosity can give us the strength to keep going. 💔🩵</t>
+  </si>
+  <si>
+    <t>Our bodies are broken, but your love could mend us. 🩵🫶 Help us survive this.</t>
+  </si>
+  <si>
+    <t>We fight hunger and pain, but your support is the hope that keeps us going. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Among the rubble, we are searching for a way out. Hunger is breaking us, but your kindness can save us. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Every breath is a struggle. Hunger tears us down, but your compassion is what can help us rise. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Surrounded by destruction, hunger is dissolving us. But with your help, we can find hope again. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We are fading away, but your support could bring us back to life. 💔🩵</t>
+  </si>
+  <si>
+    <t>Amidst the ruins, hunger is killing us. But your love could restore us. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We’re fighting hunger with every breath. But your kindness can help us fight another day. 🩵🫶</t>
+  </si>
+  <si>
+    <t>The rubble surrounds us, and hunger weakens us, but your compassion is the hope we need. 🩵🫶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are weak and starving, but with your support, we can rebuild. 🩵🫶
+</t>
+  </si>
+  <si>
+    <t>Our bodies are frail, but your kindness could give us the strength to rebuild. 💔🩵</t>
+  </si>
+  <si>
+    <t>Hunger consumes us, but with your help, we can begin anew. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Through the devastation, we fight hunger. Your support is the hope that keeps us alive. 🩵🫶</t>
+  </si>
+  <si>
+    <t>In the face of hunger and destruction, your compassion is our light. 🩵🫶 Help us rebuild.</t>
+  </si>
+  <si>
+    <t>Hunger is destroying us, but your love can bring us back. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We search for life in the rubble. Hunger is weakening us, but with your support, we can survive. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Our bodies are weak, but your generosity can rebuild us. 🩵🫶 Help us rise from the ashes.</t>
+  </si>
+  <si>
+    <t>In the rubble, hunger threatens us. But your compassion is the hope we have left. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We are lost and weak, but your support can guide us back to life. 🩵🫶</t>
+  </si>
+  <si>
+    <t>We fight hunger with our last breath, but your help could give us a future. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Through the wreckage, we cling to hope. Hunger tears us apart, but your compassion is what can heal us. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Our bodies are breaking, but with your support, we can rebuild and rise. 💔🩵</t>
+  </si>
+  <si>
+    <t>Hunger is dissolving us, but your kindness is the foundation on which we can rebuild. 🩵🫶</t>
+  </si>
+  <si>
+    <t>In the rubble, our bodies are fading. But your support is the hope we need to survive. 🩵🫶</t>
+  </si>
+  <si>
+    <t>Life is slipping away from us, piece by piece. 😭 Each donation is a lifeline, helping us hold on. Together, we are stronger. Together, we survive. 🫂☺️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With every passing day, we become more frail. 😢 Your support is what keeps us from fading into nothing. Together, we fight. Together, we survive. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our strength is fading, and we are becoming shadows of our former selves. 😔 Each donation gives us the chance to fight back. Together, we stand strong. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The world feels like it's slipping through our fingers. 😭 But your help can stop the collapse. Together, we survive and rebuild. 🫂✨
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bodies are breaking down, but your compassion rebuilds us, one donation at a time. 😢 Together, we can rise again. 🫂❤️
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are losing ourselves, slowly but surely. 😓 But with each act of kindness, we grow stronger. Together, we fight. Together, we survive. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life is slipping away with every hour that passes. 😭 But with your help, we can hold on a little longer. Together, we fight. Together, we survive. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are becoming faint echoes of who we used to be. 😔 Your support is what keeps us alive. Together, we will overcome. 🫂🌟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every day is a battle for survival. 😢 But with your kindness, we find the strength to keep fighting. Together, we stand tall. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The struggle is real, and with each passing day, we lose a little more. 😭 But your donations give us hope. Together, we survive. 🫂🫶
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As life slips from us, we fight with everything we have left. 😓 Every donation gives us the chance to hold on. Together, we endure. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’re becoming shadows of ourselves, and time is running out. 😢 Your support is our lifeline. Together, we rise again. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each day feels like we’re slipping further away from who we were. 😔 But your generosity can keep us in the fight. Together, we survive. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are fading, but your love keeps us going. 😭 Every act of kindness brings us a step closer to survival. Together, we stay strong. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bodies are becoming weaker by the minute. 😢 But your compassion gives us strength to keep going. Together, we survive. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the days pass, we feel ourselves slipping away. 😭 But your donations are helping us hold on. Together, we fight. Together, we survive. 🫂❤️
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The physical toll is unbearable, and we're becoming shadows of our former selves. 😔 But your generosity keeps us alive. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each day, we lose a little more of ourselves. 😢 But with your support, we find the strength to keep pushing forward. Together, we survive. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bodies are breaking, but your kindness is holding us together. 😭 Each donation helps us survive a little longer. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time is running out, and our strength is fading. 😔 But your donations bring us hope. Together, we rise. 🫂🫶
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are fading from the world, one moment at a time. 😭 But your support is what gives us hope to keep going. Together, we fight. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With every passing hour, we grow weaker. 😢 Your donations give us the chance to hold on. Together, we stay strong. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are on the brink of collapse, but your compassion can help us survive. 😭 Together, we fight to stay alive. 🫂❤️
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life is slipping away with every breath. 😔 Your support keeps us from vanishing completely. Together, we rise. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are becoming shadows of who we once were, but your help gives us the strength to keep fighting. 😢 Together, we survive. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every day feels like a step closer to fading. 😭 But with your kindness, we can fight back. Together, we endure. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are losing everything, but your compassion is what keeps us fighting. 😢 Together, we stand tall. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With each passing day, we become weaker. 😔 But your support gives us the power to hold on. Together, we survive. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life is slipping from our grasp, but your donations are the lifeline we need. 😭 Together, we rise again. 🫂🫶
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are shadows, fading day by day. 😢 But with your help, we can hold on to what little hope we have left. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each donation fights the collapse in our bodies. 😔 Your kindness keeps us alive. Together, we rise. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The battle to survive is real. We’re fading, but your support keeps us strong. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We feel ourselves slipping away, but your donations bring us back to life. 😭 Together, we survive. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With each passing moment, we are becoming shadows of our former selves. 😔 But your kindness can bring us back to life. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our strength is dwindling, but your support gives us the courage to continue. 😢 Together, we fight. Together, we survive. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every breath feels like a struggle. 😭 But with your donations, we can hold on. Together, we survive. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are losing our grip on life, but your generosity can give us a second chance. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fight for survival is intense, but your kindness helps us push through. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each day we grow weaker, but your support is the strength that keeps us going. 😢 Together, we fight. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bodies are fading, but your love keeps us alive. 🫂💙 Together, we survive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every donation is a ray of light in our darkest hour. 😭 Together, we fight for survival. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’re becoming faint memories of ourselves. 😢 But with your help, we can hold on to life. Together, we rise. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time is running out, but your compassion can help us hold on. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life is slipping away, but your kindness can pull us back from the edge. 🫂💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bodies are breaking, but your support helps us rebuild. Together, we fight for survival. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are on the brink of collapse, but your donations are what keep us standing. 🫂💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each day, we fight to hold on. But your kindness gives us the strength to survive. 🫂💙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every day is a new battle, but together we fight stronger. Your support means life to us. 🙏 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We may feel weak, but with your help, we remain strong. Your kindness gives us hope. 💪 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The road is tough, but we keep going because of you. Each gesture of support brings us closer to healing. ❤️ Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together, we rise. Every small act of kindness lights the way. Help us stay strong. 🌟 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the darkness, your support is the light we need to continue. Let’s face this together. 🕯️ Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope lives as long as we stand united. Every moment counts, and your help makes all the difference. 💖 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We fight every day, but we can’t do it alone. Your support is our strength. 🌈 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each step forward is a victory, thanks to your support. Don’t leave us behind. ✨ Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together, we can endure anything. Your generosity fuels our fight for tomorrow. 🤝 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We carry on, but your help is what keeps us going. Every act of kindness counts. 🌱 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’re stronger together. Your compassion lifts us when we feel weak. 💪 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every day is a challenge, but we survive because of people like you. Stay with us. 💖 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life isn’t easy, but with your support, we find the strength to move forward. 🌟 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope is built on the kindness of others. Your support is the foundation we need. 🏗️ Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your help gives us the strength to face another day. Together, we’re unstoppable. 🔥 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We fight with everything we have, but we need you by our side. 💪 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pain is real, but your kindness makes it bearable. We can’t keep fighting without you. 🙏 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every act of support brings us closer to healing. We can’t do it alone. 🤝 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are not alone, as long as you stand with us. Your support means the world. 🌍 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The battle is hard, but together we’re stronger. We need your help more than ever. 💖 Please don't ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every day is a challenge, but together, we can overcome it. Your donation brings us closer to recovery. 💖 Every bit helps! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your generosity can change lives. Together, we create hope. 🙏 Donate today and help us fight! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are fighting for tomorrow. Your donation can change everything. 💪 Every contribution counts! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every dollar brings us closer to a better future. Your kindness keeps us strong. 🌟 Donate now and make a difference. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this fight, your support is our strength. Together, we can build a brighter tomorrow. 💖 Every donation counts. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope is only possible because of you. A small donation can create a world of change. 🌈 Help us keep fighting! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together, we can do the impossible. Your donation impacts lives. 💥 Join us and make a difference. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We may feel lost, but your help gives us direction. 💪 Donate today, and be part of our story. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every step forward is thanks to your generosity. We can’t do it alone. 🌟 Please donate today and make a difference! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pain is real, but your help makes it bearable. Your donation gives us strength to continue. ❤️ Please donate and stand with us! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together, we can change lives. Your donation is hope. 💖 Be the reason someone smiles today. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are stronger when we unite. Your donation helps us push forward. 🌍 Join us in this fight. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The battle is tough, but with your donation, we’ll keep fighting. 💡 Donate today! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every penny you give is a step toward healing. 🌱 Donate now and make a difference! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your generosity keeps hope alive. Every contribution brings us closer to victory. 🔥 Please help us today. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’re not asking for a miracle, just your kindness. Your donation means we can fight another day. 🙏 Every bit counts! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can’t do this without you. Your support keeps us going. 💪 Donate today and give hope! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your donation is the difference between despair and hope. Help us rebuild. 💖 Please donate today. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every donation gives us power to face another day. With your support, we’ll overcome. 🌟 Donate and help us fight! Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope starts with you. Every donation, no matter how small, is a gift of life. 💖 Make a difference today. Please don’t ignore us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The world trembles as hunger consumes us. 🍞 Together, we can offer hope and save lives. Your help is the beacon guiding us to safety. 🌟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amidst the chaos, our hearts beat for survival. 🫶 Your support gives us a chance to live again. Let’s stand together and make a difference. 🤝
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each day feels like a battle for survival. With your help, we can fight for tomorrow. 🙏 Your support means everything to us. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sound of despair echoes, but your kindness can drown it out. 🕊️ Together, we can lift spirits and save lives. 🌱
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunger rages, but so does hope. With your donation, we can bring a family back from the brink. 🌟 Together, we fight. 💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The earth trembles beneath our feet, yet our faith remains steady. Your help is the bridge that will bring us home. 🏡 Please support us. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The storm rages on, but your support is the calm in our hearts. Together, we can rebuild hope. 🫂 Help us survive today. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bodies may be weak, but our spirits are strong. With your help, we can stand tall again. 🙌 Your support saves lives. 💚
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the world around us crumbles, your kindness gives us a reason to rebuild. 💪 Together, we can defeat hunger. 🍞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our struggles are many, but with your support, we can find light in the darkness. 🌟 Every donation gives us hope. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hunger is unbearable, but your help can ease the pain. Together, we can bring peace to troubled hearts. ❤️
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the world shakes, we stand together. Your help can save families from the brink of despair. 🌈 Please support us. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunger and hardship surround us, but hope is a powerful force when we unite. 🌟 Every bit of your help keeps us going. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amid the chaos, your kindness gives us the strength to endure. Let’s build a future together, one donation at a time. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our hearts are full of hope, but our bellies are empty. With your support, we can restore our faith in tomorrow. 🌱
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The storm may be fierce, but with your help, we can weather it together. 🌟 Stand with us today to create hope for tomorrow. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the world trembles, we hold on to each other. Your donation is the lifeline that will keep us from drowning. 🫂 Please support us. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The struggle is real, but so is our determination to survive. Your support is the strength we need to endure. 💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the darkest times, your kindness shines brightest. Together, we can lift a family from despair. 🌈 Please help us. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunger roars louder than ever, but your compassion can silence it. 🫂 Every donation brings us one step closer to survival. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are trapped in a storm of despair, but with your help, we can find shelter. 🏡 Stand with us today. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The world may be falling apart, but your support can piece us back together. 🌟 Join us in this fight. 💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stomachs may be empty, but our hearts are full of hope. 🫶 Your support can bring us the nourishment we need. 🍞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The earth quakes, but your generosity is the steady ground we need. Together, we can rebuild our future. 🌱
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every roar of hunger is met with your kindness. Together, we can bring hope back into the hearts of many. 🌟 Please donate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are all that we have. Your help can ensure we survive the toughest times. 🌱 Stand with us today. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The road ahead is tough, but with your support, we can make it. 🛤️ Help us lift up those in need. 🙌
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the earth trembles, we stand firm together. Your help will light the way forward. 🌟 We need you now. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunger may ravage us, but together, we can rebuild our strength. 💪 Your support keeps us going. Please help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The struggle is real, but together we are stronger. Your support is the lifeline we need to survive. 🫶
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our hearts are heavy, but with your help, we can rise above. 🙏 Your donation is our hope for tomorrow. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each blast shakes the earth, but with your support, we remain unshaken. 🌍 Help us make it through. 💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bellies are empty, but with your help, we’ll find the strength to carry on. 🍞 Stand with us today. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every family deserves hope. Together, we can give them a chance at life. 🌱 Your support makes it possible. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hunger is deafening, but your generosity is louder. 🫂 Together, we can silence the pain. Please help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through the loud roars of hunger, your kindness is the quiet force that brings us peace. 🕊️ Please support us. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every blast reminds us of the battle, but your kindness reminds us of hope. 🌟 Stand with us today. 💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The world is heavy, but your light can lift us. Together, we fight to survive. 💖 Please don’t ignore us. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our struggle for survival is fierce, but your support is the strength we need. 🌱 Together, we make a difference. 💪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We fight against hunger and despair, but with you by our side, victory is possible. 💖 Please support us today. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our hearts beat for hope, and your support makes it stronger. 🌟 Together, we can overcome anything. 🫂
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With every blast, we grow weaker, but your support is what keeps us strong. 💪 Stand with us today. 🌱
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The earth shakes, but together, we can create a foundation of hope. 🌟 Your support is the key to our survival. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despair is loud, but your kindness is louder. 🫂 Help us rise above hunger and hardship. 🌱
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your generosity can silence the roar of hunger and bring peace to our hearts. 💖 Please stand with us today. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The road is tough, but together we can travel it. 🌍 Your support is the guide that will lead us to safety. 💖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunger makes us weak, but your kindness makes us strong. 🫶 Together, we can overcome. Please donate. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every step we take, we take together. Your support is the reason we keep fighting. 💪 Stand with us. 🌱
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The battle is real, but so is hope. With your help, we can overcome anything. 🌟 Please support us. 🙏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together, we can lift a family from the edge of despair. 🌱 Your support is the miracle they need. Please help us today. 💖
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,18 +777,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -115,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,9 +897,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,6 +949,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,272 +1141,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:XFD201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="243">
+  <mergeCells count="241">
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A4:XFD4"/>
@@ -718,156 +2269,155 @@
     <mergeCell ref="A99:XFD99"/>
     <mergeCell ref="A100:XFD100"/>
     <mergeCell ref="A101:XFD101"/>
-    <mergeCell ref="A102:XFD102"/>
     <mergeCell ref="A91:XFD91"/>
     <mergeCell ref="A92:XFD92"/>
     <mergeCell ref="A93:XFD93"/>
     <mergeCell ref="A94:XFD94"/>
     <mergeCell ref="A95:XFD95"/>
     <mergeCell ref="A96:XFD96"/>
+    <mergeCell ref="A107:XFD107"/>
+    <mergeCell ref="A108:XFD108"/>
     <mergeCell ref="A109:XFD109"/>
     <mergeCell ref="A110:XFD110"/>
     <mergeCell ref="A111:XFD111"/>
     <mergeCell ref="A112:XFD112"/>
-    <mergeCell ref="A113:XFD113"/>
-    <mergeCell ref="A114:XFD114"/>
+    <mergeCell ref="A102:XFD102"/>
     <mergeCell ref="A103:XFD103"/>
     <mergeCell ref="A104:XFD104"/>
     <mergeCell ref="A105:XFD105"/>
     <mergeCell ref="A106:XFD106"/>
-    <mergeCell ref="A107:XFD107"/>
-    <mergeCell ref="A108:XFD108"/>
+    <mergeCell ref="A119:XFD119"/>
+    <mergeCell ref="A120:XFD120"/>
     <mergeCell ref="A121:XFD121"/>
     <mergeCell ref="A122:XFD122"/>
     <mergeCell ref="A123:XFD123"/>
     <mergeCell ref="A124:XFD124"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="A114:XFD114"/>
     <mergeCell ref="A115:XFD115"/>
     <mergeCell ref="A116:XFD116"/>
     <mergeCell ref="A117:XFD117"/>
     <mergeCell ref="A118:XFD118"/>
-    <mergeCell ref="A119:XFD119"/>
-    <mergeCell ref="A120:XFD120"/>
+    <mergeCell ref="A131:XFD131"/>
+    <mergeCell ref="A132:XFD132"/>
     <mergeCell ref="A133:XFD133"/>
     <mergeCell ref="A134:XFD134"/>
     <mergeCell ref="A135:XFD135"/>
     <mergeCell ref="A136:XFD136"/>
-    <mergeCell ref="A137:XFD137"/>
-    <mergeCell ref="A138:XFD138"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
     <mergeCell ref="A127:XFD127"/>
     <mergeCell ref="A128:XFD128"/>
     <mergeCell ref="A129:XFD129"/>
     <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A131:XFD131"/>
-    <mergeCell ref="A132:XFD132"/>
+    <mergeCell ref="A143:XFD143"/>
+    <mergeCell ref="A144:XFD144"/>
     <mergeCell ref="A145:XFD145"/>
     <mergeCell ref="A146:XFD146"/>
     <mergeCell ref="A147:XFD147"/>
     <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A150:XFD150"/>
+    <mergeCell ref="A137:XFD137"/>
+    <mergeCell ref="A138:XFD138"/>
     <mergeCell ref="A139:XFD139"/>
     <mergeCell ref="A140:XFD140"/>
     <mergeCell ref="A141:XFD141"/>
     <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A143:XFD143"/>
-    <mergeCell ref="A144:XFD144"/>
+    <mergeCell ref="A155:XFD155"/>
+    <mergeCell ref="A156:XFD156"/>
     <mergeCell ref="A157:XFD157"/>
     <mergeCell ref="A158:XFD158"/>
     <mergeCell ref="A159:XFD159"/>
     <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A162:XFD162"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A150:XFD150"/>
     <mergeCell ref="A151:XFD151"/>
     <mergeCell ref="A152:XFD152"/>
     <mergeCell ref="A153:XFD153"/>
     <mergeCell ref="A154:XFD154"/>
-    <mergeCell ref="A155:XFD155"/>
-    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A167:XFD167"/>
+    <mergeCell ref="A168:XFD168"/>
     <mergeCell ref="A169:XFD169"/>
     <mergeCell ref="A170:XFD170"/>
     <mergeCell ref="A171:XFD171"/>
     <mergeCell ref="A172:XFD172"/>
-    <mergeCell ref="A173:XFD173"/>
-    <mergeCell ref="A174:XFD174"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A162:XFD162"/>
     <mergeCell ref="A163:XFD163"/>
     <mergeCell ref="A164:XFD164"/>
     <mergeCell ref="A165:XFD165"/>
     <mergeCell ref="A166:XFD166"/>
-    <mergeCell ref="A167:XFD167"/>
-    <mergeCell ref="A168:XFD168"/>
+    <mergeCell ref="A179:XFD179"/>
+    <mergeCell ref="A180:XFD180"/>
     <mergeCell ref="A181:XFD181"/>
     <mergeCell ref="A182:XFD182"/>
     <mergeCell ref="A183:XFD183"/>
     <mergeCell ref="A184:XFD184"/>
-    <mergeCell ref="A185:XFD185"/>
-    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A173:XFD173"/>
+    <mergeCell ref="A174:XFD174"/>
     <mergeCell ref="A175:XFD175"/>
     <mergeCell ref="A176:XFD176"/>
     <mergeCell ref="A177:XFD177"/>
     <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="A179:XFD179"/>
-    <mergeCell ref="A180:XFD180"/>
+    <mergeCell ref="A191:XFD191"/>
+    <mergeCell ref="A192:XFD192"/>
     <mergeCell ref="A193:XFD193"/>
     <mergeCell ref="A194:XFD194"/>
     <mergeCell ref="A195:XFD195"/>
     <mergeCell ref="A196:XFD196"/>
-    <mergeCell ref="A197:XFD197"/>
-    <mergeCell ref="A198:XFD198"/>
+    <mergeCell ref="A185:XFD185"/>
+    <mergeCell ref="A186:XFD186"/>
     <mergeCell ref="A187:XFD187"/>
     <mergeCell ref="A188:XFD188"/>
     <mergeCell ref="A189:XFD189"/>
     <mergeCell ref="A190:XFD190"/>
-    <mergeCell ref="A191:XFD191"/>
-    <mergeCell ref="A192:XFD192"/>
+    <mergeCell ref="A203:XFD203"/>
+    <mergeCell ref="A204:XFD204"/>
     <mergeCell ref="A205:XFD205"/>
     <mergeCell ref="A206:XFD206"/>
     <mergeCell ref="A207:XFD207"/>
     <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A209:XFD209"/>
-    <mergeCell ref="A210:XFD210"/>
+    <mergeCell ref="A197:XFD197"/>
+    <mergeCell ref="A198:XFD198"/>
     <mergeCell ref="A199:XFD199"/>
     <mergeCell ref="A200:XFD200"/>
     <mergeCell ref="A201:XFD201"/>
     <mergeCell ref="A202:XFD202"/>
-    <mergeCell ref="A203:XFD203"/>
-    <mergeCell ref="A204:XFD204"/>
+    <mergeCell ref="A215:XFD215"/>
+    <mergeCell ref="A216:XFD216"/>
     <mergeCell ref="A217:XFD217"/>
     <mergeCell ref="A218:XFD218"/>
     <mergeCell ref="A219:XFD219"/>
     <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A222:XFD222"/>
+    <mergeCell ref="A209:XFD209"/>
+    <mergeCell ref="A210:XFD210"/>
     <mergeCell ref="A211:XFD211"/>
     <mergeCell ref="A212:XFD212"/>
     <mergeCell ref="A213:XFD213"/>
     <mergeCell ref="A214:XFD214"/>
-    <mergeCell ref="A215:XFD215"/>
-    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A227:XFD227"/>
+    <mergeCell ref="A228:XFD228"/>
     <mergeCell ref="A229:XFD229"/>
     <mergeCell ref="A230:XFD230"/>
     <mergeCell ref="A231:XFD231"/>
     <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A233:XFD233"/>
-    <mergeCell ref="A234:XFD234"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A222:XFD222"/>
     <mergeCell ref="A223:XFD223"/>
     <mergeCell ref="A224:XFD224"/>
     <mergeCell ref="A225:XFD225"/>
     <mergeCell ref="A226:XFD226"/>
-    <mergeCell ref="A227:XFD227"/>
-    <mergeCell ref="A228:XFD228"/>
+    <mergeCell ref="A239:XFD239"/>
+    <mergeCell ref="A240:XFD240"/>
     <mergeCell ref="A241:XFD241"/>
     <mergeCell ref="A242:XFD242"/>
-    <mergeCell ref="A243:XFD243"/>
-    <mergeCell ref="A244:XFD244"/>
+    <mergeCell ref="A233:XFD233"/>
+    <mergeCell ref="A234:XFD234"/>
     <mergeCell ref="A235:XFD235"/>
     <mergeCell ref="A236:XFD236"/>
     <mergeCell ref="A237:XFD237"/>
     <mergeCell ref="A238:XFD238"/>
-    <mergeCell ref="A239:XFD239"/>
-    <mergeCell ref="A240:XFD240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/posts.xlsx
+++ b/posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\hema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E3E13-DBDB-4295-8B0D-CD88DBF32C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B2003C-C2EF-43BD-9B01-9FB44483867C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="189">
   <si>
     <t>We lost everything in a moment. Now we cling to hope and humanity 😭. Help us hold on. Please check the link below 🙏. Be our light in the darkness — support us below 💡.</t>
   </si>
@@ -32,10 +32,6 @@
   </si>
   <si>
     <t>Each step through the ruins is a fight for life. Hunger weakens us, but your kindness is our strength. 🩵🫶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Our bodies are breaking, but your compassion could restore what hunger has destroyed. 💔🩵 Help us rise again. 🫶</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -734,6 +730,15 @@
   <si>
     <t xml:space="preserve">Together, we can lift a family from the edge of despair. 🌱 Your support is the miracle they need. Please help us today. 💖
 </t>
+  </si>
+  <si>
+    <t>Dear friend, your generosity could save our children. Please, help us. 🫂 Each act of kindness is a lifeline. Without you, we have nothing.
+Your kindness is our only bridge to safety. 🫂🩵
+Our bodies are breaking, but your compassion could restore what hunger has destroyed. 💔🩵 Help us rise again. 🫶</t>
+  </si>
+  <si>
+    <t>Our hearts are heavy, but your kindness lifts us. 💔☺️ Please, help our children sleep safe. Our hearts are breaking.
+You are the hope we cling to. Please, don’t let go. 💔🫶</t>
   </si>
 </sst>
 </file>
@@ -777,8 +782,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1142,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A242"/>
+  <dimension ref="A1:A609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201:XFD201"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:XFD609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,1264 +1171,3561 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:1" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:1" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:1" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:1" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:1" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="19" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" s="5" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+    </row>
+    <row r="100" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="220" spans="1:1" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="223" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="224" spans="1:1" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="225" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="226" spans="1:1" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="227" spans="1:1" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="228" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="229" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="230" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="231" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="232" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="233" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="234" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="235" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="236" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="237" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="238" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="239" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="240" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="241" spans="1:1" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="242" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="243" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="244" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="245" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="246" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="247" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="248" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="249" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="250" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="251" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="252" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="253" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="254" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="255" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="256" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="257" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="258" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="259" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="260" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="261" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="262" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="263" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="264" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="265" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="266" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="267" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="268" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="269" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="270" spans="1:1" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="271" spans="1:1" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="272" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="273" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="6"/>
+    </row>
+    <row r="274" spans="1:1" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="275" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="276" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="277" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="278" spans="1:1" s="5" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="6"/>
+    </row>
+    <row r="279" spans="1:1" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="280" spans="1:1" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="282" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="284" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+    </row>
+    <row r="285" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="286" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="287" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+    </row>
+    <row r="288" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="289" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+    </row>
+    <row r="290" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="291" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="292" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="6"/>
+    </row>
+    <row r="293" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="294" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="6"/>
+    </row>
+    <row r="295" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="296" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="6"/>
+    </row>
+    <row r="297" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="298" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="6"/>
+    </row>
+    <row r="299" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="300" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6"/>
+    </row>
+    <row r="301" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="302" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="6"/>
+    </row>
+    <row r="303" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="304" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="305" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="306" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="307" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="308" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="309" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="310" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="311" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="312" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="313" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="314" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="315" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="316" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="317" spans="1:1" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:1" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="318" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="319" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:1" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="320" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:1" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="321" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:1" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="322" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="323" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:1" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="326" spans="1:1" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="329" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="6"/>
+    </row>
+    <row r="477" spans="1:1" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" s="5" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="6"/>
+    </row>
+    <row r="482" spans="1:1" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="6"/>
+    </row>
+    <row r="484" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="6"/>
+    </row>
+    <row r="486" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="6"/>
+    </row>
+    <row r="488" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="6"/>
+    </row>
+    <row r="491" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="6"/>
+    </row>
+    <row r="493" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="6"/>
+    </row>
+    <row r="496" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="6"/>
+    </row>
+    <row r="498" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="6"/>
+    </row>
+    <row r="500" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="6"/>
+    </row>
+    <row r="502" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="6"/>
+    </row>
+    <row r="504" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="6"/>
+    </row>
+    <row r="506" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="527" spans="1:1" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:1" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="531" spans="1:1" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="534" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="535" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="536" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="537" spans="1:1" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:1" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="538" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="540" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="541" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="542" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    <row r="543" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="544" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="545" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+    <row r="546" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="547" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+    <row r="548" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+    <row r="549" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+    <row r="550" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+    <row r="551" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+    <row r="552" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+    <row r="553" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+    <row r="554" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="557" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="559" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="560" spans="1:1" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:1" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+    <row r="561" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="562" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+    <row r="563" spans="1:1" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:1" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="564" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="565" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+    <row r="566" spans="1:1" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="567" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+    <row r="568" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:1" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+    <row r="569" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+    <row r="570" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+    <row r="571" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+    <row r="572" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="573" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="166" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+    <row r="574" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="575" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:1" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+    <row r="576" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="169" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="577" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="578" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="579" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="580" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="581" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+    <row r="582" spans="1:1" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="583" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+    <row r="584" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="177" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+    <row r="585" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+    <row r="586" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="179" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+    <row r="587" spans="1:1" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:1" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+    <row r="588" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+    <row r="589" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+    <row r="590" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+    <row r="591" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+    <row r="592" spans="1:1" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:1" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+    <row r="593" spans="1:1" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:1" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+    <row r="594" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="595" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="596" spans="1:1" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:1" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+    <row r="597" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+    <row r="598" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="191" spans="1:1" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+    <row r="599" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+    <row r="600" spans="1:1" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:1" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+    <row r="601" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+    <row r="602" spans="1:1" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+    <row r="603" spans="1:1" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:1" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+    <row r="604" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:1" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="605" spans="1:1" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:1" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="606" spans="1:1" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:1" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+    <row r="607" spans="1:1" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="200" spans="1:1" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+    <row r="608" spans="1:1" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:1" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+    <row r="609" spans="1:1" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:1" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="241">
+  <mergeCells count="603">
+    <mergeCell ref="A606:XFD606"/>
+    <mergeCell ref="A607:XFD607"/>
+    <mergeCell ref="A608:XFD608"/>
+    <mergeCell ref="A609:XFD609"/>
+    <mergeCell ref="A597:XFD597"/>
+    <mergeCell ref="A598:XFD598"/>
+    <mergeCell ref="A599:XFD599"/>
+    <mergeCell ref="A600:XFD600"/>
+    <mergeCell ref="A601:XFD601"/>
+    <mergeCell ref="A602:XFD602"/>
+    <mergeCell ref="A603:XFD603"/>
+    <mergeCell ref="A604:XFD604"/>
+    <mergeCell ref="A605:XFD605"/>
+    <mergeCell ref="A588:XFD588"/>
+    <mergeCell ref="A589:XFD589"/>
+    <mergeCell ref="A590:XFD590"/>
+    <mergeCell ref="A591:XFD591"/>
+    <mergeCell ref="A592:XFD592"/>
+    <mergeCell ref="A593:XFD593"/>
+    <mergeCell ref="A594:XFD594"/>
+    <mergeCell ref="A595:XFD595"/>
+    <mergeCell ref="A596:XFD596"/>
+    <mergeCell ref="A579:XFD579"/>
+    <mergeCell ref="A580:XFD580"/>
+    <mergeCell ref="A581:XFD581"/>
+    <mergeCell ref="A582:XFD582"/>
+    <mergeCell ref="A583:XFD583"/>
+    <mergeCell ref="A584:XFD584"/>
+    <mergeCell ref="A585:XFD585"/>
+    <mergeCell ref="A586:XFD586"/>
+    <mergeCell ref="A587:XFD587"/>
+    <mergeCell ref="A570:XFD570"/>
+    <mergeCell ref="A571:XFD571"/>
+    <mergeCell ref="A572:XFD572"/>
+    <mergeCell ref="A573:XFD573"/>
+    <mergeCell ref="A574:XFD574"/>
+    <mergeCell ref="A575:XFD575"/>
+    <mergeCell ref="A576:XFD576"/>
+    <mergeCell ref="A577:XFD577"/>
+    <mergeCell ref="A578:XFD578"/>
+    <mergeCell ref="A561:XFD561"/>
+    <mergeCell ref="A562:XFD562"/>
+    <mergeCell ref="A563:XFD563"/>
+    <mergeCell ref="A564:XFD564"/>
+    <mergeCell ref="A565:XFD565"/>
+    <mergeCell ref="A566:XFD566"/>
+    <mergeCell ref="A567:XFD567"/>
+    <mergeCell ref="A568:XFD568"/>
+    <mergeCell ref="A569:XFD569"/>
+    <mergeCell ref="A552:XFD552"/>
+    <mergeCell ref="A553:XFD553"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A556:XFD556"/>
+    <mergeCell ref="A557:XFD557"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
+    <mergeCell ref="A560:XFD560"/>
+    <mergeCell ref="A543:XFD543"/>
+    <mergeCell ref="A544:XFD544"/>
+    <mergeCell ref="A545:XFD545"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A548:XFD548"/>
+    <mergeCell ref="A549:XFD549"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A534:XFD534"/>
+    <mergeCell ref="A535:XFD535"/>
+    <mergeCell ref="A536:XFD536"/>
+    <mergeCell ref="A537:XFD537"/>
+    <mergeCell ref="A538:XFD538"/>
+    <mergeCell ref="A539:XFD539"/>
+    <mergeCell ref="A540:XFD540"/>
+    <mergeCell ref="A541:XFD541"/>
+    <mergeCell ref="A542:XFD542"/>
+    <mergeCell ref="A525:XFD525"/>
+    <mergeCell ref="A526:XFD526"/>
+    <mergeCell ref="A527:XFD527"/>
+    <mergeCell ref="A528:XFD528"/>
+    <mergeCell ref="A529:XFD529"/>
+    <mergeCell ref="A530:XFD530"/>
+    <mergeCell ref="A531:XFD531"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A516:XFD516"/>
+    <mergeCell ref="A517:XFD517"/>
+    <mergeCell ref="A518:XFD518"/>
+    <mergeCell ref="A519:XFD519"/>
+    <mergeCell ref="A520:XFD520"/>
+    <mergeCell ref="A521:XFD521"/>
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A524:XFD524"/>
+    <mergeCell ref="A507:XFD507"/>
+    <mergeCell ref="A508:XFD508"/>
+    <mergeCell ref="A509:XFD509"/>
+    <mergeCell ref="A510:XFD510"/>
+    <mergeCell ref="A511:XFD511"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A514:XFD514"/>
+    <mergeCell ref="A515:XFD515"/>
+    <mergeCell ref="A498:XFD498"/>
+    <mergeCell ref="A499:XFD499"/>
+    <mergeCell ref="A500:XFD500"/>
+    <mergeCell ref="A501:XFD501"/>
+    <mergeCell ref="A502:XFD502"/>
+    <mergeCell ref="A503:XFD503"/>
+    <mergeCell ref="A504:XFD504"/>
+    <mergeCell ref="A505:XFD505"/>
+    <mergeCell ref="A506:XFD506"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A492:XFD492"/>
+    <mergeCell ref="A493:XFD493"/>
+    <mergeCell ref="A494:XFD494"/>
+    <mergeCell ref="A495:XFD495"/>
+    <mergeCell ref="A496:XFD496"/>
+    <mergeCell ref="A497:XFD497"/>
+    <mergeCell ref="A480:XFD480"/>
+    <mergeCell ref="A481:XFD481"/>
+    <mergeCell ref="A482:XFD482"/>
+    <mergeCell ref="A483:XFD483"/>
+    <mergeCell ref="A484:XFD484"/>
+    <mergeCell ref="A485:XFD485"/>
+    <mergeCell ref="A486:XFD486"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A488:XFD488"/>
+    <mergeCell ref="A471:XFD471"/>
+    <mergeCell ref="A472:XFD472"/>
+    <mergeCell ref="A473:XFD473"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A475:XFD475"/>
+    <mergeCell ref="A476:XFD476"/>
+    <mergeCell ref="A477:XFD477"/>
+    <mergeCell ref="A478:XFD478"/>
+    <mergeCell ref="A479:XFD479"/>
+    <mergeCell ref="A462:XFD462"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A465:XFD465"/>
+    <mergeCell ref="A466:XFD466"/>
+    <mergeCell ref="A467:XFD467"/>
+    <mergeCell ref="A468:XFD468"/>
+    <mergeCell ref="A469:XFD469"/>
+    <mergeCell ref="A470:XFD470"/>
+    <mergeCell ref="A453:XFD453"/>
+    <mergeCell ref="A454:XFD454"/>
+    <mergeCell ref="A455:XFD455"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A458:XFD458"/>
+    <mergeCell ref="A459:XFD459"/>
+    <mergeCell ref="A460:XFD460"/>
+    <mergeCell ref="A461:XFD461"/>
+    <mergeCell ref="A444:XFD444"/>
+    <mergeCell ref="A445:XFD445"/>
+    <mergeCell ref="A446:XFD446"/>
+    <mergeCell ref="A447:XFD447"/>
+    <mergeCell ref="A448:XFD448"/>
+    <mergeCell ref="A449:XFD449"/>
+    <mergeCell ref="A450:XFD450"/>
+    <mergeCell ref="A451:XFD451"/>
+    <mergeCell ref="A452:XFD452"/>
+    <mergeCell ref="A435:XFD435"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A439:XFD439"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A443:XFD443"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A427:XFD427"/>
+    <mergeCell ref="A428:XFD428"/>
+    <mergeCell ref="A429:XFD429"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A431:XFD431"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A417:XFD417"/>
+    <mergeCell ref="A418:XFD418"/>
+    <mergeCell ref="A419:XFD419"/>
+    <mergeCell ref="A420:XFD420"/>
+    <mergeCell ref="A421:XFD421"/>
+    <mergeCell ref="A422:XFD422"/>
+    <mergeCell ref="A423:XFD423"/>
+    <mergeCell ref="A424:XFD424"/>
+    <mergeCell ref="A425:XFD425"/>
+    <mergeCell ref="A406:XFD406"/>
+    <mergeCell ref="A408:XFD408"/>
+    <mergeCell ref="A409:XFD409"/>
+    <mergeCell ref="A410:XFD410"/>
+    <mergeCell ref="A411:XFD411"/>
+    <mergeCell ref="A413:XFD413"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A415:XFD415"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A397:XFD397"/>
+    <mergeCell ref="A398:XFD398"/>
+    <mergeCell ref="A399:XFD399"/>
+    <mergeCell ref="A400:XFD400"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A403:XFD403"/>
+    <mergeCell ref="A404:XFD404"/>
+    <mergeCell ref="A405:XFD405"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A389:XFD389"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A393:XFD393"/>
+    <mergeCell ref="A394:XFD394"/>
+    <mergeCell ref="A395:XFD395"/>
+    <mergeCell ref="A396:XFD396"/>
+    <mergeCell ref="A379:XFD379"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:XFD381"/>
+    <mergeCell ref="A382:XFD382"/>
+    <mergeCell ref="A383:XFD383"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A386:XFD386"/>
+    <mergeCell ref="A387:XFD387"/>
+    <mergeCell ref="A370:XFD370"/>
+    <mergeCell ref="A371:XFD371"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A373:XFD373"/>
+    <mergeCell ref="A374:XFD374"/>
+    <mergeCell ref="A375:XFD375"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A377:XFD377"/>
+    <mergeCell ref="A378:XFD378"/>
+    <mergeCell ref="A361:XFD361"/>
+    <mergeCell ref="A362:XFD362"/>
+    <mergeCell ref="A363:XFD363"/>
+    <mergeCell ref="A364:XFD364"/>
+    <mergeCell ref="A365:XFD365"/>
+    <mergeCell ref="A366:XFD366"/>
+    <mergeCell ref="A367:XFD367"/>
+    <mergeCell ref="A368:XFD368"/>
+    <mergeCell ref="A369:XFD369"/>
+    <mergeCell ref="A352:XFD352"/>
+    <mergeCell ref="A353:XFD353"/>
+    <mergeCell ref="A354:XFD354"/>
+    <mergeCell ref="A355:XFD355"/>
+    <mergeCell ref="A356:XFD356"/>
+    <mergeCell ref="A357:XFD357"/>
+    <mergeCell ref="A358:XFD358"/>
+    <mergeCell ref="A359:XFD359"/>
+    <mergeCell ref="A360:XFD360"/>
+    <mergeCell ref="A343:XFD343"/>
+    <mergeCell ref="A344:XFD344"/>
+    <mergeCell ref="A345:XFD345"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A348:XFD348"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:XFD351"/>
+    <mergeCell ref="A334:XFD334"/>
+    <mergeCell ref="A335:XFD335"/>
+    <mergeCell ref="A336:XFD336"/>
+    <mergeCell ref="A337:XFD337"/>
+    <mergeCell ref="A338:XFD338"/>
+    <mergeCell ref="A339:XFD339"/>
+    <mergeCell ref="A340:XFD340"/>
+    <mergeCell ref="A341:XFD341"/>
+    <mergeCell ref="A342:XFD342"/>
+    <mergeCell ref="A325:XFD325"/>
+    <mergeCell ref="A326:XFD326"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A329:XFD329"/>
+    <mergeCell ref="A330:XFD330"/>
+    <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A333:XFD333"/>
+    <mergeCell ref="A316:XFD316"/>
+    <mergeCell ref="A317:XFD317"/>
+    <mergeCell ref="A318:XFD318"/>
+    <mergeCell ref="A319:XFD319"/>
+    <mergeCell ref="A320:XFD320"/>
+    <mergeCell ref="A321:XFD321"/>
+    <mergeCell ref="A322:XFD322"/>
+    <mergeCell ref="A323:XFD323"/>
+    <mergeCell ref="A324:XFD324"/>
+    <mergeCell ref="A307:XFD307"/>
+    <mergeCell ref="A308:XFD308"/>
+    <mergeCell ref="A309:XFD309"/>
+    <mergeCell ref="A310:XFD310"/>
+    <mergeCell ref="A311:XFD311"/>
+    <mergeCell ref="A312:XFD312"/>
+    <mergeCell ref="A313:XFD313"/>
+    <mergeCell ref="A314:XFD314"/>
+    <mergeCell ref="A315:XFD315"/>
+    <mergeCell ref="A298:XFD298"/>
+    <mergeCell ref="A299:XFD299"/>
+    <mergeCell ref="A300:XFD300"/>
+    <mergeCell ref="A301:XFD301"/>
+    <mergeCell ref="A302:XFD302"/>
+    <mergeCell ref="A303:XFD303"/>
+    <mergeCell ref="A304:XFD304"/>
+    <mergeCell ref="A305:XFD305"/>
+    <mergeCell ref="A306:XFD306"/>
+    <mergeCell ref="A289:XFD289"/>
+    <mergeCell ref="A290:XFD290"/>
+    <mergeCell ref="A291:XFD291"/>
+    <mergeCell ref="A292:XFD292"/>
+    <mergeCell ref="A293:XFD293"/>
+    <mergeCell ref="A294:XFD294"/>
+    <mergeCell ref="A295:XFD295"/>
+    <mergeCell ref="A296:XFD296"/>
+    <mergeCell ref="A297:XFD297"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A281:XFD281"/>
+    <mergeCell ref="A282:XFD282"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A285:XFD285"/>
+    <mergeCell ref="A286:XFD286"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A271:XFD271"/>
+    <mergeCell ref="A272:XFD272"/>
+    <mergeCell ref="A273:XFD273"/>
+    <mergeCell ref="A274:XFD274"/>
+    <mergeCell ref="A275:XFD275"/>
+    <mergeCell ref="A276:XFD276"/>
+    <mergeCell ref="A277:XFD277"/>
+    <mergeCell ref="A278:XFD278"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A262:XFD262"/>
+    <mergeCell ref="A263:XFD263"/>
+    <mergeCell ref="A264:XFD264"/>
+    <mergeCell ref="A265:XFD265"/>
+    <mergeCell ref="A266:XFD266"/>
+    <mergeCell ref="A267:XFD267"/>
+    <mergeCell ref="A268:XFD268"/>
+    <mergeCell ref="A269:XFD269"/>
+    <mergeCell ref="A270:XFD270"/>
+    <mergeCell ref="A253:XFD253"/>
+    <mergeCell ref="A254:XFD254"/>
+    <mergeCell ref="A255:XFD255"/>
+    <mergeCell ref="A256:XFD256"/>
+    <mergeCell ref="A257:XFD257"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A261:XFD261"/>
+    <mergeCell ref="A244:XFD244"/>
+    <mergeCell ref="A245:XFD245"/>
+    <mergeCell ref="A246:XFD246"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A249:XFD249"/>
+    <mergeCell ref="A250:XFD250"/>
+    <mergeCell ref="A251:XFD251"/>
+    <mergeCell ref="A252:XFD252"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A7:XFD7"/>
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="A15:XFD15"/>
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A9:XFD9"/>
     <mergeCell ref="A10:XFD10"/>
     <mergeCell ref="A11:XFD11"/>
     <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A28:XFD28"/>
     <mergeCell ref="A29:XFD29"/>
     <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A31:XFD31"/>
     <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="A22:XFD22"/>
     <mergeCell ref="A23:XFD23"/>
     <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A39:XFD39"/>
     <mergeCell ref="A40:XFD40"/>
     <mergeCell ref="A41:XFD41"/>
     <mergeCell ref="A42:XFD42"/>
-    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A43:XFD43"/>
     <mergeCell ref="A32:XFD32"/>
     <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="A35:XFD35"/>
     <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A49:XFD49"/>
+    <mergeCell ref="A37:XFD37"/>
     <mergeCell ref="A50:XFD50"/>
     <mergeCell ref="A51:XFD51"/>
     <mergeCell ref="A52:XFD52"/>
     <mergeCell ref="A53:XFD53"/>
     <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A55:XFD55"/>
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A45:XFD45"/>
     <mergeCell ref="A46:XFD46"/>
     <mergeCell ref="A47:XFD47"/>
     <mergeCell ref="A48:XFD48"/>
-    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A49:XFD49"/>
     <mergeCell ref="A62:XFD62"/>
     <mergeCell ref="A63:XFD63"/>
     <mergeCell ref="A64:XFD64"/>
     <mergeCell ref="A65:XFD65"/>
     <mergeCell ref="A66:XFD66"/>
-    <mergeCell ref="A55:XFD55"/>
+    <mergeCell ref="A67:XFD67"/>
     <mergeCell ref="A56:XFD56"/>
     <mergeCell ref="A57:XFD57"/>
     <mergeCell ref="A58:XFD58"/>
     <mergeCell ref="A59:XFD59"/>
     <mergeCell ref="A60:XFD60"/>
-    <mergeCell ref="A73:XFD73"/>
+    <mergeCell ref="A61:XFD61"/>
     <mergeCell ref="A74:XFD74"/>
     <mergeCell ref="A75:XFD75"/>
     <mergeCell ref="A76:XFD76"/>
     <mergeCell ref="A77:XFD77"/>
     <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A67:XFD67"/>
+    <mergeCell ref="A79:XFD79"/>
     <mergeCell ref="A68:XFD68"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A70:XFD70"/>
     <mergeCell ref="A71:XFD71"/>
     <mergeCell ref="A72:XFD72"/>
-    <mergeCell ref="A85:XFD85"/>
+    <mergeCell ref="A73:XFD73"/>
     <mergeCell ref="A86:XFD86"/>
     <mergeCell ref="A87:XFD87"/>
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A89:XFD89"/>
     <mergeCell ref="A90:XFD90"/>
-    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A91:XFD91"/>
     <mergeCell ref="A80:XFD80"/>
     <mergeCell ref="A81:XFD81"/>
     <mergeCell ref="A82:XFD82"/>
     <mergeCell ref="A83:XFD83"/>
     <mergeCell ref="A84:XFD84"/>
-    <mergeCell ref="A97:XFD97"/>
+    <mergeCell ref="A85:XFD85"/>
     <mergeCell ref="A98:XFD98"/>
     <mergeCell ref="A99:XFD99"/>
     <mergeCell ref="A100:XFD100"/>
     <mergeCell ref="A101:XFD101"/>
-    <mergeCell ref="A91:XFD91"/>
+    <mergeCell ref="A102:XFD102"/>
     <mergeCell ref="A92:XFD92"/>
     <mergeCell ref="A93:XFD93"/>
     <mergeCell ref="A94:XFD94"/>
     <mergeCell ref="A95:XFD95"/>
     <mergeCell ref="A96:XFD96"/>
-    <mergeCell ref="A107:XFD107"/>
+    <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="A108:XFD108"/>
     <mergeCell ref="A109:XFD109"/>
     <mergeCell ref="A110:XFD110"/>
     <mergeCell ref="A111:XFD111"/>
     <mergeCell ref="A112:XFD112"/>
-    <mergeCell ref="A102:XFD102"/>
+    <mergeCell ref="A113:XFD113"/>
     <mergeCell ref="A103:XFD103"/>
     <mergeCell ref="A104:XFD104"/>
     <mergeCell ref="A105:XFD105"/>
     <mergeCell ref="A106:XFD106"/>
-    <mergeCell ref="A119:XFD119"/>
+    <mergeCell ref="A107:XFD107"/>
     <mergeCell ref="A120:XFD120"/>
     <mergeCell ref="A121:XFD121"/>
     <mergeCell ref="A122:XFD122"/>
     <mergeCell ref="A123:XFD123"/>
     <mergeCell ref="A124:XFD124"/>
-    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="A125:XFD125"/>
     <mergeCell ref="A114:XFD114"/>
     <mergeCell ref="A115:XFD115"/>
     <mergeCell ref="A116:XFD116"/>
     <mergeCell ref="A117:XFD117"/>
     <mergeCell ref="A118:XFD118"/>
-    <mergeCell ref="A131:XFD131"/>
+    <mergeCell ref="A119:XFD119"/>
     <mergeCell ref="A132:XFD132"/>
     <mergeCell ref="A133:XFD133"/>
     <mergeCell ref="A134:XFD134"/>
     <mergeCell ref="A135:XFD135"/>
     <mergeCell ref="A136:XFD136"/>
-    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A137:XFD137"/>
     <mergeCell ref="A126:XFD126"/>
     <mergeCell ref="A127:XFD127"/>
     <mergeCell ref="A128:XFD128"/>
     <mergeCell ref="A129:XFD129"/>
     <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A143:XFD143"/>
+    <mergeCell ref="A131:XFD131"/>
     <mergeCell ref="A144:XFD144"/>
     <mergeCell ref="A145:XFD145"/>
     <mergeCell ref="A146:XFD146"/>
     <mergeCell ref="A147:XFD147"/>
     <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A137:XFD137"/>
+    <mergeCell ref="A149:XFD149"/>
     <mergeCell ref="A138:XFD138"/>
     <mergeCell ref="A139:XFD139"/>
     <mergeCell ref="A140:XFD140"/>
     <mergeCell ref="A141:XFD141"/>
     <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A155:XFD155"/>
+    <mergeCell ref="A143:XFD143"/>
     <mergeCell ref="A156:XFD156"/>
     <mergeCell ref="A157:XFD157"/>
     <mergeCell ref="A158:XFD158"/>
     <mergeCell ref="A159:XFD159"/>
     <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A161:XFD161"/>
     <mergeCell ref="A150:XFD150"/>
     <mergeCell ref="A151:XFD151"/>
     <mergeCell ref="A152:XFD152"/>
     <mergeCell ref="A153:XFD153"/>
     <mergeCell ref="A154:XFD154"/>
-    <mergeCell ref="A167:XFD167"/>
+    <mergeCell ref="A155:XFD155"/>
     <mergeCell ref="A168:XFD168"/>
     <mergeCell ref="A169:XFD169"/>
     <mergeCell ref="A170:XFD170"/>
     <mergeCell ref="A171:XFD171"/>
     <mergeCell ref="A172:XFD172"/>
-    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A173:XFD173"/>
     <mergeCell ref="A162:XFD162"/>
     <mergeCell ref="A163:XFD163"/>
     <mergeCell ref="A164:XFD164"/>
     <mergeCell ref="A165:XFD165"/>
     <mergeCell ref="A166:XFD166"/>
-    <mergeCell ref="A179:XFD179"/>
+    <mergeCell ref="A167:XFD167"/>
     <mergeCell ref="A180:XFD180"/>
     <mergeCell ref="A181:XFD181"/>
     <mergeCell ref="A182:XFD182"/>
     <mergeCell ref="A183:XFD183"/>
     <mergeCell ref="A184:XFD184"/>
-    <mergeCell ref="A173:XFD173"/>
+    <mergeCell ref="A185:XFD185"/>
     <mergeCell ref="A174:XFD174"/>
     <mergeCell ref="A175:XFD175"/>
     <mergeCell ref="A176:XFD176"/>
     <mergeCell ref="A177:XFD177"/>
     <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="A191:XFD191"/>
+    <mergeCell ref="A179:XFD179"/>
     <mergeCell ref="A192:XFD192"/>
     <mergeCell ref="A193:XFD193"/>
     <mergeCell ref="A194:XFD194"/>
     <mergeCell ref="A195:XFD195"/>
     <mergeCell ref="A196:XFD196"/>
-    <mergeCell ref="A185:XFD185"/>
+    <mergeCell ref="A197:XFD197"/>
     <mergeCell ref="A186:XFD186"/>
     <mergeCell ref="A187:XFD187"/>
     <mergeCell ref="A188:XFD188"/>
     <mergeCell ref="A189:XFD189"/>
     <mergeCell ref="A190:XFD190"/>
-    <mergeCell ref="A203:XFD203"/>
-    <mergeCell ref="A204:XFD204"/>
+    <mergeCell ref="A191:XFD191"/>
     <mergeCell ref="A205:XFD205"/>
     <mergeCell ref="A206:XFD206"/>
     <mergeCell ref="A207:XFD207"/>
     <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A197:XFD197"/>
     <mergeCell ref="A198:XFD198"/>
     <mergeCell ref="A199:XFD199"/>
     <mergeCell ref="A200:XFD200"/>
     <mergeCell ref="A201:XFD201"/>
     <mergeCell ref="A202:XFD202"/>
-    <mergeCell ref="A215:XFD215"/>
+    <mergeCell ref="A203:XFD203"/>
     <mergeCell ref="A216:XFD216"/>
     <mergeCell ref="A217:XFD217"/>
     <mergeCell ref="A218:XFD218"/>
     <mergeCell ref="A219:XFD219"/>
     <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A209:XFD209"/>
+    <mergeCell ref="A221:XFD221"/>
     <mergeCell ref="A210:XFD210"/>
     <mergeCell ref="A211:XFD211"/>
     <mergeCell ref="A212:XFD212"/>
     <mergeCell ref="A213:XFD213"/>
     <mergeCell ref="A214:XFD214"/>
-    <mergeCell ref="A227:XFD227"/>
+    <mergeCell ref="A215:XFD215"/>
     <mergeCell ref="A228:XFD228"/>
     <mergeCell ref="A229:XFD229"/>
     <mergeCell ref="A230:XFD230"/>
     <mergeCell ref="A231:XFD231"/>
     <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A233:XFD233"/>
     <mergeCell ref="A222:XFD222"/>
     <mergeCell ref="A223:XFD223"/>
     <mergeCell ref="A224:XFD224"/>
     <mergeCell ref="A225:XFD225"/>
     <mergeCell ref="A226:XFD226"/>
-    <mergeCell ref="A239:XFD239"/>
+    <mergeCell ref="A227:XFD227"/>
     <mergeCell ref="A240:XFD240"/>
     <mergeCell ref="A241:XFD241"/>
     <mergeCell ref="A242:XFD242"/>
-    <mergeCell ref="A233:XFD233"/>
+    <mergeCell ref="A243:XFD243"/>
     <mergeCell ref="A234:XFD234"/>
     <mergeCell ref="A235:XFD235"/>
     <mergeCell ref="A236:XFD236"/>
     <mergeCell ref="A237:XFD237"/>
     <mergeCell ref="A238:XFD238"/>
+    <mergeCell ref="A239:XFD239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
